--- a/数据整理/stocks/港股/06969-思摩尔国际.xlsx
+++ b/数据整理/stocks/港股/06969-思摩尔国际.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4507,4 +4508,1352 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007119</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>369.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.9780</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009863</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国创新趋势股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>100.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.3777</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>73.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.3285</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010027</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城核心中景一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>77.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.2265</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004263</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安沪港深机会灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>48.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.1850</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010454</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>54.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9951</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009190</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城核心优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.7925</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010887</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>41.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5994</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011236</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>61.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>70.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2427</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007120</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>39.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1764</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7096</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.69</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7084</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009360</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商创新增长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6302</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.32</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>67.19</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4619</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010888</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4195</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009411</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3569</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安香港精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1790</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1757</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011237</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>70.59</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1679</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>59.22</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1113</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011287</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源聚慧三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>43.22</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002443</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>前海开源沪港深龙头精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0971</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008381</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0967</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006813</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时汇悦回报混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>77.21</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0893</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009361</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商创新增长混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>57.35</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>57.35</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/06969-思摩尔国际.xlsx
+++ b/数据整理/stocks/港股/06969-思摩尔国际.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5856,4 +5857,934 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010108</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城核心招景混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>70.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4194</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010027</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城核心中景一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>72.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4192</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004263</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安沪港深机会灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2650</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009864</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商景气优选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>35.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1861</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009190</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城核心优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6054</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011450</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5388</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009360</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商创新增长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5323</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010166</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商兴和优选1年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5139</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009736</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>35.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4622</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4158</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009865</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商景气优选股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3239</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009737</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.99</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1964</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安香港精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1674</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1028</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008306</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>方正富邦天璇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008381</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009361</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商创新增长混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002443</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源沪港深龙头精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011451</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008307</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>方正富邦天璇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/06969-思摩尔国际.xlsx
+++ b/数据整理/stocks/港股/06969-思摩尔国际.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6787,4 +6788,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>38.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>38</v>
+      </c>
+      <c r="D4" t="n">
+        <v>30.98</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>66</v>
+      </c>
+      <c r="D5" t="n">
+        <v>59.87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/06969-思摩尔国际.xlsx
+++ b/数据整理/stocks/港股/06969-思摩尔国际.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6796,7 +6797,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6807,17 +6808,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6827,14 +6848,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.65</v>
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3433</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -6843,14 +6886,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>34</v>
-      </c>
-      <c r="D3" t="n">
-        <v>38.75</v>
+          <t>004263</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安沪港深机会灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1071</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -6859,14 +6924,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>38</v>
-      </c>
-      <c r="D4" t="n">
-        <v>30.98</v>
+          <t>009360</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商创新增长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>44.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0476</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -6875,13 +6962,1785 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011162</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7415</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010326</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时消费创新混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3254</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007139</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国民裕进取沪港深成长精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7735</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6078</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009736</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>35.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>37.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6068</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008133</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安优质生活混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5721</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010852</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5234</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4253</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011163</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.98</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3388</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2981</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012073</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2706</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006614</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2180</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2100</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009737</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>37.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2093</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001581</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2043</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1919</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010327</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时消费创新混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1827</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008306</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>方正富邦天璇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1212</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012987</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉合锦明混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>37.80</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>78.88</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1022</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007850</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>方正富邦天睿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0921</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002387</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007959</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>方正富邦天恒混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006813</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时汇悦回报混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012988</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉合锦明混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>37.80</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009361</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商创新增长混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010853</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>460010</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>78.88</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000927</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>050015</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) -人民币</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007512</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012074</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>82.06</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007851</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>方正富邦天睿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008307</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>方正富邦天璇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007960</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>方正富邦天恒混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>47</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>34</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>38</v>
+      </c>
+      <c r="D5" t="n">
+        <v>30.98</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>66</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>59.87</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06969-思摩尔国际.xlsx
+++ b/数据整理/stocks/港股/06969-思摩尔国际.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8639,7 +8640,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8650,17 +8651,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8670,14 +8691,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>47</v>
-      </c>
-      <c r="D2" t="n">
-        <v>17.6</v>
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5675</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -8686,14 +8729,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>23</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.65</v>
+          <t>010787</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4655</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -8702,14 +8767,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>34</v>
-      </c>
-      <c r="D4" t="n">
-        <v>38.75</v>
+          <t>004263</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安沪港深机会灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1654</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -8718,14 +8805,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>38</v>
-      </c>
-      <c r="D5" t="n">
-        <v>30.98</v>
+          <t>011162</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8175</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -8734,13 +8843,813 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>010326</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时消费创新混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6213</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013414</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>太平智远三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3546</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009360</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商创新增长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2757</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012987</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉合锦明混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>63.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2134</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005521</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安红利精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2048</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011238</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2046</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010852</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2008</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1993</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011163</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1624</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012988</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉合锦明混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>63.80</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1306</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010788</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010327</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时消费创新混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009361</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商创新增长混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011239</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010853</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>47</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>34</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>38</v>
+      </c>
+      <c r="D6" t="n">
+        <v>30.98</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>66</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>59.87</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06969-思摩尔国际.xlsx
+++ b/数据整理/stocks/港股/06969-思摩尔国际.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9532,7 +9533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9543,17 +9544,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9563,14 +9584,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.02</v>
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2665</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -9579,14 +9622,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>47</v>
-      </c>
-      <c r="D3" t="n">
-        <v>17.6</v>
+          <t>010787</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6321</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -9595,14 +9660,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>23</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.65</v>
+          <t>004263</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安沪港深机会灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4074</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -9611,14 +9698,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>34</v>
-      </c>
-      <c r="D5" t="n">
-        <v>38.75</v>
+          <t>011162</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1098</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -9627,14 +9736,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>38</v>
-      </c>
-      <c r="D6" t="n">
-        <v>30.98</v>
+          <t>501077</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0015</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -9643,13 +9774,1663 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>007345</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9421</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002387</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9370</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010326</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时消费创新混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8428</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013414</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>太平智远三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4813</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009334</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国融享18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4434</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011921</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国均衡成长三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2699</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010852</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2379</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012987</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉合锦明混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2231</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011238</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2223</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011163</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2191</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005521</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安红利精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2008</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1880</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008138</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1872</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安香港精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1848</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012988</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉合锦明混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.09</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1359</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014164</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国融享18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1174</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010327</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时消费创新混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1159</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010788</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007959</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>方正富邦天恒混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007512</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009606</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>29.43</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010853</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011144</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011239</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011922</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国均衡成长三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011105</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009607</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>29.43</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011145</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011106</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007960</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>方正富邦天恒混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014971</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华安红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>45</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>47</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.65</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>34</v>
+      </c>
+      <c r="D6" t="n">
+        <v>38.75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>38</v>
+      </c>
+      <c r="D7" t="n">
+        <v>30.98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>66</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>59.87</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06969-思摩尔国际.xlsx
+++ b/数据整理/stocks/港股/06969-思摩尔国际.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>14.2</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D3" t="n">
-        <v>8.02</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>17.6</v>
+        <v>8.02</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="D5" t="n">
-        <v>12.65</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>38.75</v>
+        <v>12.65</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D7" t="n">
-        <v>30.98</v>
+        <v>38.75</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D8" t="n">
+        <v>30.98</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>66</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>59.87</v>
       </c>
     </row>
@@ -600,6 +617,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004263</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安沪港深机会混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5921</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012188</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安优势龙头混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3592</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014539</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安优势精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012189</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安优势龙头混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014540</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安优势精选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2363,7 +2702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3255,7 +3594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5097,7 +5436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6027,7 +6366,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7375,7 +7714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8875,7 +9214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/06969-思摩尔国际.xlsx
+++ b/数据整理/stocks/港股/06969-思摩尔国际.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>1.14</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>14.2</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D4" t="n">
-        <v>8.02</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>17.6</v>
+        <v>8.02</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="D6" t="n">
-        <v>12.65</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D7" t="n">
-        <v>38.75</v>
+        <v>12.65</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D8" t="n">
-        <v>30.98</v>
+        <v>38.75</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,2594 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>38</v>
+      </c>
+      <c r="D9" t="n">
+        <v>30.98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>66</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>59.87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009863</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国创新趋势股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>140.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.7603</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001875</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>73.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.4062</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501054</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>128.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.4815</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002121</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>55.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.2102</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009190</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城核心优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>62.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.0443</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001837</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>37.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.5278</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>910007</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.7578</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007887</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.7578</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000906</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发全球精选股票(QDII)美元现汇</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>10.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.4984</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>270023</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>10.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.4984</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009491</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>宝盈创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>46.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.0146</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005777</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发科技动力股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>53.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.7224</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>28.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3969</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501077</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0927</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008227</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14.90</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9625</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9240</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>169107</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方红恒阳五年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>27.79</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8448</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009697</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7743</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004476</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深领先科技股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>31.43</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.53</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6349</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001874</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6197</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010024</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5761</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005583</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达港股通红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5257</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>14.55</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5151</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010114</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华宝新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>13.19</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.89</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4656</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009411</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中银科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4349</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009057</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>80.17</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4113</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002482</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>宝盈互联网沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3946</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008228</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3146</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009058</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>80.17</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2704</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华安香港精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2600</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010128</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2388</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2351</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2191</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009334</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国融享18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2016</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009698</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1906</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001581</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1865</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009492</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>宝盈创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1784</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1339</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1339</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1080</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002443</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>前海开源沪港深龙头精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008381</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>96.75</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009189</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华宝成长策略混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>100055</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富国全球科技互联网股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009619</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>78.64</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002230</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏大中华企业精选灵活配置混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010129</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>161620</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>融通核心价值混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>71.69</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011032</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005883</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华宝港股通香港精选混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>007139</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>富国民裕进取沪港深成长精选混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009620</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>78.64</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +3198,670 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004263</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安沪港深机会混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7212</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012188</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安优势龙头混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5563</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011921</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国均衡成长三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4798</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012578</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国红利混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4421</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008138</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3569</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009334</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国融享18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2893</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014539</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安优势精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012579</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国红利混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014164</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国融享18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012189</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安优势龙头混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011922</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国均衡成长三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014540</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安优势精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>016370</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信澳业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>30.31</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>016371</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信澳业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>30.31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -938,7 +4183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2702,7 +5947,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3594,7 +6839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5436,7 +8681,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6366,7 +9611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7714,7 +10959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9212,2568 +12457,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H67"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009863</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国创新趋势股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>140.39</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>95.67</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.24</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>8.7603</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001875</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源沪港深优势精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>73.55</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.71</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>6.4062</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>501054</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>东方红睿泽三年定期开放灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>128.78</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.18</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>4.4815</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002121</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发沪港深新起点股票A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>55.47</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.21</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.59</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>4.2102</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009190</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>景顺长城核心优选一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>62.80</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.44</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.44</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>4.0443</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001837</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>37.41</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.05</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>9.43</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>3.5278</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>910007</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>东方红启元三年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>88.39</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.23</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2.7578</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007887</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>东方红启元三年持有期混合B</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>88.39</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.23</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>2.7578</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>000906</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>广发全球精选股票(QDII)美元现汇</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>23.84</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>89.22</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>10.48</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2.4984</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>270023</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>广发全球精选股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>23.84</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>89.22</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>10.48</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2.4984</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009491</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>宝盈创新驱动股票A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>46.42</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>2.0146</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005777</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>广发科技动力股票</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>53.49</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.31</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>1.7224</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>506003</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>富国科创板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>28.22</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>97.15</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>1.3969</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>501077</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>23.60</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>98.95</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>1.0927</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>008227</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>宝盈研究精选混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>14.90</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>90.72</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>6.46</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.9625</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>005620</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中欧品质消费股票A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>12.78</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>92.22</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>7.23</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.9240</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>169107</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>东方红恒阳五年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>27.79</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>88.31</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.8448</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>009697</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华夏成长精选6个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>22.38</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>91.83</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.7743</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>004476</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>景顺长城沪港深领先科技股票</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>31.43</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>83.53</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.6349</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>001874</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>前海开源沪港深价值精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>6.87</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>94.88</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>9.02</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.6197</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>010024</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>广发沪港深新起点股票C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>7.59</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>88.21</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>7.59</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.5761</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>005583</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>易方达港股通红利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>7.87</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>91.52</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>6.68</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.5257</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>002332</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>汇丰晋信沪港深股票A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>14.55</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.5151</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>010114</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>华宝新兴成长混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>13.19</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>83.89</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.4656</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>009411</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>中银科技创新一年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>7.46</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>94.58</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>5.83</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.4349</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>009057</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>博时科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>9.08</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>80.17</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.4113</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>002482</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>宝盈互联网沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>10.17</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>93.18</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.3946</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>008228</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>宝盈研究精选混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>90.72</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>6.46</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.3146</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>009058</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>博时科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>5.97</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>80.17</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.2704</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>040018</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>华安香港精选股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>5.83</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>92.89</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.2600</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>010128</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>宝盈发展新动能股票A</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>93.07</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.2388</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>008655</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>招商科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>90.84</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.2351</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>005621</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>中欧品质消费股票C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>92.22</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>7.23</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.2191</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>009334</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>富国融享18个月定期开放混合</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>7.33</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>91.45</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.2016</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>009698</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>华夏成长精选6个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>5.51</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>91.83</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.1906</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>001581</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>华安沪港深通精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>7.49</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>93.34</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.1865</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>009492</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>宝盈创新驱动股票C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.1784</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>519991</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>长信双利优选混合A</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>88.83</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.1339</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>006396</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>长信双利优选混合E</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>88.83</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.1339</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>007291</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>汇丰晋信港股通双核策略混合</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>94.38</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.1080</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>002443</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>前海开源沪港深龙头精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>94.89</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>9.39</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0911</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>008381</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>前海开源新兴产业混合</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>9.44</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0831</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>006595</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>广发港股通优质增长混合</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>96.75</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>4.77</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0739</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>007151</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>前海开源沪港深聚瑞混合</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>93.57</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>9.69</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0659</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>009189</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>华宝成长策略混合</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>91.41</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0610</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>100055</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>富国全球科技互联网股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>92.16</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0596</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>004314</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>91.60</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>9.60</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0595</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>006923</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>前海开源沪港深非周期性行业股票A</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>89.61</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>8.19</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0508</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>009619</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>博时女性消费主题混合A</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>78.64</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0465</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>002230</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>华夏大中华企业精选灵活配置混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>91.81</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0453</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>160322</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>华夏港股通精选股票(LOF)</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>91.70</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0394</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>002333</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>汇丰晋信沪港深股票C</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0375</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>004315</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>91.60</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>9.60</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0298</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>008656</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>招商科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>90.84</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0283</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>010129</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>宝盈发展新动能股票C</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>93.07</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0250</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>008861</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>西部利得港股通新机遇灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>87.88</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0228</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>161620</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>融通核心价值混合（QDII）</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>71.69</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0222</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>005701</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>上投摩根香港精选港股通混合</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>89.12</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0192</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>006924</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>前海开源沪港深非周期性行业股票C</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>89.61</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>8.19</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0164</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>011032</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>东方红睿泽三年定期开放灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>93.18</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0.0157</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>040021</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>华安大中华升级股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0.0151</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>005883</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>华宝港股通香港精选混合</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>89.94</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>5.81</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>0.0151</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>007139</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>富国民裕进取沪港深成长精选混合</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>90.12</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>0.0147</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>010093</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>西部利得港股通新机遇灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>87.88</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>0.0066</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>001972</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>86.25</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>8.70</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>0.0061</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>009620</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>博时女性消费主题混合C</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>78.64</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>